--- a/ICustom.register.test/src/test/resources/design/数据字典API.xlsx
+++ b/ICustom.register.test/src/test/resources/design/数据字典API.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="360" yWindow="30" windowWidth="17175" windowHeight="5970"/>
   </bookViews>
   <sheets>
-    <sheet name="NavigationService-API " sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="IRegisterService-API" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="48">
   <si>
     <t>接口方法名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,14 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>services/nav/findNavigationSiteMenu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>findNavigationSiteMenu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JSON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,7 +89,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{pageSize:20,curPage:1}</t>
+    <t>参数类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数
+[P:地址请求参数; F:表单请求参数; N:路径链接请求参数]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findRecords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>services/register/registerService/findRegisterList/{pageSize}/{curPage}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findRegisterList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regCode</t>
+  </si>
+  <si>
+    <t>regCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regDesc</t>
+  </si>
+  <si>
+    <t>regDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regValue</t>
+  </si>
+  <si>
+    <t>regValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>services/register/registerService/findRegisterList/10/1?regName=regName&amp;regCode=regCode&amp;regDesc=regDesc&amp;regValue=regValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>services/register/registerService/findRecords/{pageSize}/{curPage}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>services/register/registerService/findRecords/10/1? classId=1&amp;className=2&amp;classCode=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>services/register/registerService/{itemId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>services/register/registerService/findItem/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>services/register/registerService/batchInsert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchInsert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+{
+"regName":"regName",
+"regCode":"regCode",
+"regDesc":"描述",
+"regValue":"regValue",
+"parentId":0,
+"orderCode":1
+}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>orderCode</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -198,32 +306,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,180 +645,789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.875" customWidth="1"/>
     <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="6" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="33.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="28.5" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J1:J2"/>
+  <mergeCells count="50">
+    <mergeCell ref="K19:K24"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="M19:M24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="K25:K30"/>
+    <mergeCell ref="L25:L30"/>
+    <mergeCell ref="M25:M30"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="M3:M8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="K15:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ICustom.register.test/src/test/resources/design/数据字典API.xlsx
+++ b/ICustom.register.test/src/test/resources/design/数据字典API.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
   <si>
     <t>接口方法名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,14 @@
   </si>
   <si>
     <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>services/register/registerService/batchUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchUpdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,9 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -344,6 +349,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,19 +732,19 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -750,22 +758,22 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
@@ -777,16 +785,16 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
@@ -798,16 +806,16 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
@@ -819,16 +827,16 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
@@ -840,16 +848,16 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
@@ -861,24 +869,24 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -892,22 +900,22 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
@@ -919,16 +927,16 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
@@ -940,16 +948,16 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
@@ -961,16 +969,16 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
@@ -982,16 +990,16 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1003,24 +1011,24 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1034,75 +1042,75 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1116,22 +1124,22 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1143,16 +1151,16 @@
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1164,16 +1172,16 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="2" t="s">
         <v>33</v>
       </c>
@@ -1185,16 +1193,16 @@
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1206,16 +1214,16 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="6"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1227,24 +1235,24 @@
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1258,22 +1266,22 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1285,16 +1293,16 @@
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1306,16 +1314,16 @@
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1327,16 +1335,16 @@
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
@@ -1348,16 +1356,16 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="6"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="2" t="s">
         <v>45</v>
       </c>
@@ -1369,12 +1377,46 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="M3:M8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="K19:K24"/>
     <mergeCell ref="L19:L24"/>
     <mergeCell ref="M19:M24"/>
@@ -1391,40 +1433,6 @@
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="D19:D24"/>
     <mergeCell ref="E19:E24"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="M3:M8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="K9:K14"/>
-    <mergeCell ref="L9:L14"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="K15:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ICustom.register.test/src/test/resources/design/数据字典API.xlsx
+++ b/ICustom.register.test/src/test/resources/design/数据字典API.xlsx
@@ -167,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>services/register/registerService/{itemId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>services/register/registerService/findItem/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +215,10 @@
   </si>
   <si>
     <t>batchUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>services/register/registerService/findItem/{itemId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,6 +341,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -349,9 +352,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -732,19 +732,19 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -758,22 +758,22 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
@@ -785,16 +785,16 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
@@ -806,16 +806,16 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
@@ -827,16 +827,16 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
@@ -848,16 +848,16 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
@@ -869,24 +869,24 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -900,22 +900,22 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
@@ -927,16 +927,16 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
@@ -948,16 +948,16 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
@@ -969,16 +969,16 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
@@ -990,16 +990,16 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1011,24 +1011,24 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1042,79 +1042,79 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="6" t="s">
+      <c r="K15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>19</v>
@@ -1124,22 +1124,22 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="K19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1151,16 +1151,16 @@
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1172,16 +1172,16 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
         <v>33</v>
       </c>
@@ -1193,18 +1193,18 @@
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
@@ -1214,18 +1214,18 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
@@ -1235,28 +1235,28 @@
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>19</v>
@@ -1266,22 +1266,22 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="6" t="s">
+      <c r="K25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1293,16 +1293,16 @@
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1314,16 +1314,16 @@
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1335,18 +1335,18 @@
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>21</v>
@@ -1356,18 +1356,18 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>21</v>
@@ -1377,30 +1377,28 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="M3:M8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="K9:K14"/>
-    <mergeCell ref="L9:L14"/>
-    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="K19:K24"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="M19:M24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="K25:K30"/>
+    <mergeCell ref="L25:L30"/>
+    <mergeCell ref="M25:M30"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
@@ -1417,22 +1415,24 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="K19:K24"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="M19:M24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="K25:K30"/>
-    <mergeCell ref="L25:L30"/>
-    <mergeCell ref="M25:M30"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="M3:M8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="K15:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
